--- a/Output/Сушильные машины.xlsx
+++ b/Output/Сушильные машины.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Артикул</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>TDC145VG</t>
+  </si>
+  <si>
+    <t>профессиональные</t>
   </si>
   <si>
     <t>TDA140C</t>
@@ -732,7 +735,9 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s"/>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
@@ -747,16 +752,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -765,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -779,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
@@ -791,10 +796,10 @@
         <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
